--- a/corelDraw/MLA_DDZ_NeuronSelect.xlsx
+++ b/corelDraw/MLA_DDZ_NeuronSelect.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725B6D2B-C86D-472D-A859-7B96C6F22D8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2709CA4-CC56-4BA1-BB4B-7BC9CF2464BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -241,35 +241,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CH2,CH4,CH6,CH8,CH10,CH11,CH1011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RENAME1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RENAME2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RENAME3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RENAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH4,CH6,CH7,CH8,CH9,CH10,CH11,CH12,CH13,CH14,CH15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>none</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CH2,CH4,CH6,CH8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A45R15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A48R17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A45R13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A43R12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH2,CH4,CH6,CH8,CH10,CH11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH4,CH6,CH7,CH9,CH10,CH11,CH12,CH13,CH14,CH15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -844,13 +844,13 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C18">
         <v>717</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -858,13 +858,13 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C19">
         <v>7668</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -872,10 +872,10 @@
         <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -883,13 +883,13 @@
         <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C21">
         <v>19079</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/corelDraw/MLA_DDZ_NeuronSelect.xlsx
+++ b/corelDraw/MLA_DDZ_NeuronSelect.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2709CA4-CC56-4BA1-BB4B-7BC9CF2464BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31C4175-0CE9-4085-9957-6FC4F983147D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="88">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +270,106 @@
   </si>
   <si>
     <t>CH4,CH6,CH7,CH9,CH10,CH11,CH12,CH13,CH14,CH15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,9,10,11,12,13,14,15,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,10,11,12,13,14,15,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,11,12,13,14,15,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,10,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,13,14,15,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,9,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,12,13,14,15,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,11,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,14,15,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,8,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8,9,10,11,12,13,14,15,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ig</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,19 +695,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.44140625" customWidth="1"/>
     <col min="2" max="2" width="64.21875" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -620,8 +722,17 @@
       <c r="D1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -634,8 +745,17 @@
       <c r="D2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -648,8 +768,17 @@
       <c r="D3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -662,8 +791,17 @@
       <c r="D4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -676,8 +814,17 @@
       <c r="D5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -690,8 +837,17 @@
       <c r="D6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -704,8 +860,17 @@
       <c r="D7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -718,8 +883,17 @@
       <c r="D8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -729,8 +903,17 @@
       <c r="D9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -743,8 +926,17 @@
       <c r="D10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -757,8 +949,17 @@
       <c r="D11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -771,8 +972,17 @@
       <c r="D12" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -782,8 +992,17 @@
       <c r="D13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -796,8 +1015,17 @@
       <c r="D14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -810,8 +1038,17 @@
       <c r="D15" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -824,8 +1061,17 @@
       <c r="D16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -838,8 +1084,17 @@
       <c r="D17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -852,8 +1107,17 @@
       <c r="D18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -866,8 +1130,17 @@
       <c r="D19" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -877,8 +1150,17 @@
       <c r="D20" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -890,6 +1172,15 @@
       </c>
       <c r="D21" t="s">
         <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/corelDraw/MLA_DDZ_NeuronSelect.xlsx
+++ b/corelDraw/MLA_DDZ_NeuronSelect.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31C4175-0CE9-4085-9957-6FC4F983147D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BE9C12-4B88-481F-85E5-E05F4EE52B47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18408" windowHeight="6648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="106">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,26 +134,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CH2,CH4,CH10,CH11,CH15,CH16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A53R13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CH2,CH4,CH5,CH6,CH7,CH8,CH12,CH13,CH14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A51R11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CH2,CH4,CH6,CH8,CH9,CH12,CH13,CH14,CH15,CH16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A49R11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,13 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CH1,CH8,CH10,CH11,CH12,CH13,CH14</t>
-  </si>
-  <si>
-    <t>CH2,CH3,CH8,CH9,CH10,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A48R14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,14 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CH4,CH5,CH9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH2,CH4,CH5,CH7,CH10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A52R15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -269,10 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CH4,CH6,CH7,CH9,CH10,CH11,CH12,CH13,CH14,CH15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5,6,7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -370,6 +339,164 @@
   </si>
   <si>
     <t>Ig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,9,10,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toUse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反应不明显</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SgSel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrSel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IgSel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,9,10,1112,13,14,15,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,11,12,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,15,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,8,9,10,11,12,13,14,15,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点浅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-4.06不反应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,8,9,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CH2,CH4,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CH10,CH11,CH15,CH16</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CH2,CH4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,CH5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,CH6,CH7,CH8,CH12,CH13,CH14,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CH16</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH1,CH3,CH8,CH10,CH12,CH13,CH14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH2,CH3,CH8,CH9,CH10,CH11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH2,CH4,CH5,CH7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH4,CH5,CH13,CH14,CH15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH2,CH4,CH6,CH7,CH8,CH9,CH11,CH12,CH13,CH14,CH15,CH16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH4,CH6,CH7,CH10,CH11,CH12,CH13,CH14,CH15,CH1008,CH1009</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,7 +504,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,13 +519,60 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -413,8 +587,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -695,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -707,9 +888,12 @@
     <col min="2" max="2" width="64.21875" customWidth="1"/>
     <col min="5" max="5" width="41.6640625" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="31.109375" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -731,8 +915,26 @@
       <c r="G1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -745,17 +947,32 @@
       <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -768,21 +985,36 @@
       <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C4">
@@ -791,17 +1023,32 @@
       <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
         <v>69</v>
       </c>
-      <c r="G4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -814,373 +1061,640 @@
       <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>28</v>
+      <c r="B6" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="C6">
         <v>13249</v>
       </c>
       <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="3">
+        <v>15899</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="E7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="F7" s="3">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3">
+        <v>11</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3081</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C7">
-        <v>15899</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="D9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3">
+        <v>9</v>
+      </c>
+      <c r="G9" s="3">
+        <v>13</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>19079</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8">
-        <v>3081</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="G10" s="2">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10">
-        <v>19079</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="C11">
         <v>11041</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12">
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="4">
         <v>9201</v>
       </c>
-      <c r="D12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4">
+        <v>7</v>
+      </c>
+      <c r="G12" s="4">
+        <v>10</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>8</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="4">
         <v>7668</v>
       </c>
-      <c r="D14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4</v>
+      </c>
+      <c r="F14" s="4">
+        <v>8</v>
+      </c>
+      <c r="G14" s="4">
+        <v>13</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="C15">
         <v>13249</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="5">
+        <v>13249</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="5">
+        <v>3</v>
+      </c>
+      <c r="F16" s="5">
+        <v>8</v>
+      </c>
+      <c r="G16" s="5">
+        <v>11</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="5">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="2">
+        <v>19079</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2">
+        <v>7</v>
+      </c>
+      <c r="G17" s="2">
+        <v>8</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16">
-        <v>13249</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17">
-        <v>19079</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C18">
         <v>717</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="C19">
         <v>7668</v>
       </c>
       <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
         <v>58</v>
       </c>
-      <c r="E19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="I19" t="s">
+        <v>96</v>
+      </c>
+      <c r="J19" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1">
+        <v>7</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="2">
+        <v>19079</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E21" s="2">
+        <v>3</v>
+      </c>
+      <c r="F21" s="2">
+        <v>6</v>
+      </c>
+      <c r="G21" s="2">
+        <v>7</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="J21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C21">
-        <v>19079</v>
-      </c>
-      <c r="D21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" t="s">
-        <v>64</v>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
